--- a/记录表.xlsx
+++ b/记录表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="116">
   <si>
     <t>序号</t>
   </si>
@@ -350,6 +350,42 @@
   </si>
   <si>
     <t>日本动漫图片分享平台，用户可以浏览和分享高清动漫图片，内容涵盖动漫、游戏、插画等多个领域。</t>
+  </si>
+  <si>
+    <t>https://babesource.com/</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.eporner.com/</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.pornpics.com/</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requests、Selenium</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requests</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requests</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Image-Spider\Requests\Pornpics</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Image-Spider\Requests\Eporner_R18</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Image-Spider\Requests\Babesource</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -969,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,6 +1038,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1327,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1381,7 +1420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1481,7 +1520,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1521,7 +1560,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1541,7 +1580,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1581,7 +1620,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1601,7 +1640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1621,7 +1660,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1641,7 +1680,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1661,7 +1700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1681,7 +1720,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1701,7 +1740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1721,7 +1760,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1741,7 +1780,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1761,7 +1800,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1781,7 +1820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1801,7 +1840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1821,7 +1860,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1841,7 +1880,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1861,7 +1900,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1881,7 +1920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1901,7 +1940,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1921,7 +1960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1941,7 +1980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1961,7 +2000,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1981,7 +2020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1995,7 +2034,7 @@
         <v>106</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>50</v>
@@ -2005,10 +2044,51 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
+      <c r="B34" s="6">
+        <v>45955</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
+      </c>
+      <c r="B35" s="6">
+        <v>45956</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6">
+        <v>45957</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2070,8 +2150,11 @@
     <hyperlink ref="C31" r:id="rId30"/>
     <hyperlink ref="C32" r:id="rId31" display="https://www.unsplash.com/"/>
     <hyperlink ref="C33" r:id="rId32" display="https://www.yande.re/"/>
+    <hyperlink ref="C34" r:id="rId33"/>
+    <hyperlink ref="C35" r:id="rId34"/>
+    <hyperlink ref="C36" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/记录表.xlsx
+++ b/记录表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
   <si>
     <t>序号</t>
   </si>
@@ -385,6 +385,66 @@
   </si>
   <si>
     <t>Auto_Image-Spider\Requests\Babesource</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.elitebabes.com/</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.eporner.com/</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://isorepublic.com/</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.piqsels.com/</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>selenium "undetected-chromedriver (uc) 库</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Image-Spider\Requests\Elitebabes_R18</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Image-Spider\Requests\Eporner_R18</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Image-Spider\Requests\Isorepublic</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Image-Spider\Selenium\Piqsels</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人色情图片图库</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人内容平台</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人图片网站</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>成人色情摄影网站，手工精选内容</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>免版税库存媒体市场，提供免费和付费选项，高分辨率库存照片和视频</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费库存照片库，涵盖各种主题如自然、技术和抽象图像</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1366,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -2050,6 +2110,9 @@
       <c r="C34" s="11" t="s">
         <v>107</v>
       </c>
+      <c r="D34" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="E34" s="4" t="s">
         <v>8</v>
       </c>
@@ -2067,6 +2130,9 @@
       <c r="C35" s="11" t="s">
         <v>108</v>
       </c>
+      <c r="D35" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="E35" s="4" t="s">
         <v>111</v>
       </c>
@@ -2076,7 +2142,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="6">
         <v>45957</v>
@@ -2084,6 +2150,9 @@
       <c r="C36" s="11" t="s">
         <v>109</v>
       </c>
+      <c r="D36" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="E36" s="4" t="s">
         <v>112</v>
       </c>
@@ -2091,17 +2160,85 @@
         <v>113</v>
       </c>
     </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6">
+        <v>45957</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6">
+        <v>45957</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6">
+        <v>45957</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6">
+        <v>45957</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
@@ -2153,8 +2290,12 @@
     <hyperlink ref="C34" r:id="rId33"/>
     <hyperlink ref="C35" r:id="rId34"/>
     <hyperlink ref="C36" r:id="rId35"/>
+    <hyperlink ref="C37" r:id="rId36"/>
+    <hyperlink ref="C38" r:id="rId37"/>
+    <hyperlink ref="C39" r:id="rId38"/>
+    <hyperlink ref="C40" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
--- a/记录表.xlsx
+++ b/记录表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
   <si>
     <t>序号</t>
   </si>
@@ -445,6 +445,43 @@
   </si>
   <si>
     <t>免费库存照片库，涵盖各种主题如自然、技术和抽象图像</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xchina.fit/</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Image-Spider\Selenium_Undetected-chromedriver\tw_8se_me</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tw.8se.me/台湾的图片网，高清图集，内容有国模、韩国套图</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.v2ph.com/</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Image-Spider\Selenium_Undetected-chromedriver\v2ph</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>微图坊高清美女写真网站
+共有121924套写真专辑，10079位模特，8109740张高清图片，全部容量5519.8GB。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://en.girlstop.info/</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Image-Spider\Selenium_Undetected-chromedriver\en_girlstop_info</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个大型的裸女写真聚合站，类似艺术裸体图库，但明确属于成人站点，未成年人请勿访问。</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1426,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2241,16 +2278,64 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6">
+        <v>45969</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6">
+        <v>45969</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6">
+        <v>45969</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -2294,8 +2379,12 @@
     <hyperlink ref="C38" r:id="rId37"/>
     <hyperlink ref="C39" r:id="rId38"/>
     <hyperlink ref="C40" r:id="rId39"/>
+    <hyperlink ref="C41" r:id="rId40"/>
+    <hyperlink ref="D41" r:id="rId41"/>
+    <hyperlink ref="C42" r:id="rId42"/>
+    <hyperlink ref="C43" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
--- a/记录表.xlsx
+++ b/记录表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="144">
   <si>
     <t>序号</t>
   </si>
@@ -482,6 +482,22 @@
   </si>
   <si>
     <t>一个大型的裸女写真聚合站，类似艺术裸体图库，但明确属于成人站点，未成年人请勿访问。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://1x.com/gallery/fine-art-nude/awarded</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>从艺术摄影社区 1x.com 的特定分类页面（Fine Art Nude / Awarded）爬取高质量图片及其元数据</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requests</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_Image-Spider\Requests\1x_com</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1461,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2211,7 +2227,7 @@
         <v>128</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>121</v>
@@ -2335,6 +2351,26 @@
       </c>
       <c r="F43" s="4" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6">
+        <v>45973</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2383,8 +2419,9 @@
     <hyperlink ref="D41" r:id="rId41"/>
     <hyperlink ref="C42" r:id="rId42"/>
     <hyperlink ref="C43" r:id="rId43"/>
+    <hyperlink ref="C44" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>